--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pomc-Mc1r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pomc-Mc1r.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.8423243333333333</v>
+        <v>0.09102500000000001</v>
       </c>
       <c r="H2">
-        <v>2.526973</v>
+        <v>0.273075</v>
       </c>
       <c r="I2">
-        <v>0.9815065412458547</v>
+        <v>0.8515285885346505</v>
       </c>
       <c r="J2">
-        <v>0.9815065412458546</v>
+        <v>0.8515285885346504</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4662053333333333</v>
+        <v>0.2557903333333333</v>
       </c>
       <c r="N2">
-        <v>1.398616</v>
+        <v>0.767371</v>
       </c>
       <c r="O2">
-        <v>0.2133196185609433</v>
+        <v>0.1295099616231651</v>
       </c>
       <c r="P2">
-        <v>0.2133196185609433</v>
+        <v>0.1295099616231651</v>
       </c>
       <c r="Q2">
-        <v>0.3926960965964444</v>
+        <v>0.02328331509166667</v>
       </c>
       <c r="R2">
-        <v>3.534264869368</v>
+        <v>0.209549835825</v>
       </c>
       <c r="S2">
-        <v>0.2093746009936365</v>
+        <v>0.1102814348221505</v>
       </c>
       <c r="T2">
-        <v>0.2093746009936365</v>
+        <v>0.1102814348221505</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.8423243333333333</v>
+        <v>0.09102500000000001</v>
       </c>
       <c r="H3">
-        <v>2.526973</v>
+        <v>0.273075</v>
       </c>
       <c r="I3">
-        <v>0.9815065412458547</v>
+        <v>0.8515285885346505</v>
       </c>
       <c r="J3">
-        <v>0.9815065412458546</v>
+        <v>0.8515285885346504</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.337562999999999</v>
       </c>
       <c r="O3">
-        <v>0.661573501693146</v>
+        <v>0.7320547918387076</v>
       </c>
       <c r="P3">
-        <v>0.661573501693146</v>
+        <v>0.7320547918387076</v>
       </c>
       <c r="Q3">
-        <v>1.217878287422111</v>
+        <v>0.1316088906916667</v>
       </c>
       <c r="R3">
-        <v>10.960904586799</v>
+        <v>1.184480016225</v>
       </c>
       <c r="S3">
-        <v>0.6493387194267483</v>
+        <v>0.6233655836244421</v>
       </c>
       <c r="T3">
-        <v>0.6493387194267483</v>
+        <v>0.6233655836244419</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.8423243333333333</v>
+        <v>0.09102500000000001</v>
       </c>
       <c r="H4">
-        <v>2.526973</v>
+        <v>0.273075</v>
       </c>
       <c r="I4">
-        <v>0.9815065412458547</v>
+        <v>0.8515285885346505</v>
       </c>
       <c r="J4">
-        <v>0.9815065412458546</v>
+        <v>0.8515285885346504</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>0.820255</v>
       </c>
       <c r="O4">
-        <v>0.1251068797459107</v>
+        <v>0.1384352465381273</v>
       </c>
       <c r="P4">
-        <v>0.1251068797459107</v>
+        <v>0.1384352465381273</v>
       </c>
       <c r="Q4">
-        <v>0.2303069153461111</v>
+        <v>0.02488790379166667</v>
       </c>
       <c r="R4">
-        <v>2.072762238115</v>
+        <v>0.223991134125</v>
       </c>
       <c r="S4">
-        <v>0.1227932208254699</v>
+        <v>0.1178815700880579</v>
       </c>
       <c r="T4">
-        <v>0.1227932208254698</v>
+        <v>0.1178815700880579</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.047613</v>
       </c>
       <c r="I5">
-        <v>0.01849345875414533</v>
+        <v>0.1484714114653495</v>
       </c>
       <c r="J5">
-        <v>0.01849345875414533</v>
+        <v>0.1484714114653495</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4662053333333333</v>
+        <v>0.2557903333333333</v>
       </c>
       <c r="N5">
-        <v>1.398616</v>
+        <v>0.767371</v>
       </c>
       <c r="O5">
-        <v>0.2133196185609433</v>
+        <v>0.1295099616231651</v>
       </c>
       <c r="P5">
-        <v>0.2133196185609433</v>
+        <v>0.1295099616231651</v>
       </c>
       <c r="Q5">
-        <v>0.007399144845333333</v>
+        <v>0.004059648380333333</v>
       </c>
       <c r="R5">
-        <v>0.066592303608</v>
+        <v>0.036536835423</v>
       </c>
       <c r="S5">
-        <v>0.00394501756730682</v>
+        <v>0.01922852680101457</v>
       </c>
       <c r="T5">
-        <v>0.00394501756730682</v>
+        <v>0.01922852680101457</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.047613</v>
       </c>
       <c r="I6">
-        <v>0.01849345875414533</v>
+        <v>0.1484714114653495</v>
       </c>
       <c r="J6">
-        <v>0.01849345875414533</v>
+        <v>0.1484714114653495</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>4.337562999999999</v>
       </c>
       <c r="O6">
-        <v>0.661573501693146</v>
+        <v>0.7320547918387076</v>
       </c>
       <c r="P6">
-        <v>0.661573501693146</v>
+        <v>0.7320547918387076</v>
       </c>
       <c r="Q6">
         <v>0.02294715412433333</v>
@@ -818,10 +818,10 @@
         <v>0.206524387119</v>
       </c>
       <c r="S6">
-        <v>0.01223478226639769</v>
+        <v>0.1086892082142655</v>
       </c>
       <c r="T6">
-        <v>0.01223478226639769</v>
+        <v>0.1086892082142655</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.047613</v>
       </c>
       <c r="I7">
-        <v>0.01849345875414533</v>
+        <v>0.1484714114653495</v>
       </c>
       <c r="J7">
-        <v>0.01849345875414533</v>
+        <v>0.1484714114653495</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>0.820255</v>
       </c>
       <c r="O7">
-        <v>0.1251068797459107</v>
+        <v>0.1384352465381273</v>
       </c>
       <c r="P7">
-        <v>0.1251068797459107</v>
+        <v>0.1384352465381273</v>
       </c>
       <c r="Q7">
         <v>0.004339422368333333</v>
@@ -880,10 +880,10 @@
         <v>0.039054801315</v>
       </c>
       <c r="S7">
-        <v>0.002313658920440818</v>
+        <v>0.02055367645006939</v>
       </c>
       <c r="T7">
-        <v>0.002313658920440818</v>
+        <v>0.0205536764500694</v>
       </c>
     </row>
   </sheetData>
